--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\GitHub\MIKUY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02BFFBD1-842C-4FED-8556-9F7FDB747BF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CA250A-A610-42B6-B9B7-37254D608F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B015ACD9-FD31-4507-BF58-E900FB5357A9}"/>
   </bookViews>
@@ -36,13 +36,13 @@
     <t>tusuy</t>
   </si>
   <si>
-    <t>español</t>
-  </si>
-  <si>
     <t>comer</t>
   </si>
   <si>
     <t>bailar</t>
+  </si>
+  <si>
+    <t>espanol</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
